--- a/data/trans_camb/P16A01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-1,04; 8,7</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 5,82</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 5,92</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 3,4</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 6,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 3,71</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>52,61%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17,37%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>19,97%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-5,77%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,45%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-12,67; 180,66</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-38,92; 117,62</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-32,67; 125,02</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-47,64; 74,1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,7; 104,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,9; 66,43</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,97; 10,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 4,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,86; 0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 5,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 4,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 3,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,0; 6,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 3,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 1,0</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,6%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,37; 238,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,01; 98,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,79; 11,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,68; 110,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,48; 96,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,63; 72,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,03; 129,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,75; 64,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,23; 19,65</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 11,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 4,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 6,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,4; 12,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,4; 9,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,36; 10,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,13; 10,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 6,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 7,39</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>430,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>286,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>363,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>237,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>155,67%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,56; 409,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,45; 199,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,09; 233,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>153,59; 1286,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,03; 860,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,73; 920,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>116,88; 512,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,28; 270,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,93; 352,09</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 6,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 6,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 7,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,72; 8,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 4,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 5,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,74; 6,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 4,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 4,66</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,16%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,62%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,22%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 155,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,58; 166,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,67; 187,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,58; 225,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,87; 125,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,52; 132,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,51; 153,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,72; 108,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,5; 100,25</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 11,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 4,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 4,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 8,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 5,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 9,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 7,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 3,85</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 5,83</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,13%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,25%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,46%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,12%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,08%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,72%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,34; 244,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,29; 106,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,96; 111,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,63; 183,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,92; 118,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,02; 212,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 140,66</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,76; 74,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,01; 116,73</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,14; 14,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 5,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 5,91</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 8,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 7,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 5,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,41; 10,38</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 5,7</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 4,63</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,87%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,68%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,26%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,19%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,32%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,71; 315,4</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,55; 112,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,63; 138,49</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,49; 239,49</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,37; 212,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,17; 136,11</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,14; 234,47</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 128,28</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,13; 109,66</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 3,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 3,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 6,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 2,56</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 4,5</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 5,38</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 2,28</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 3,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 4,66</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,53%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,13; 56,8</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,32; 59,58</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,55; 96,11</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,42; 53,03</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,54; 96,84</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,09; 110,47</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,9; 38,73</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,8; 52,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,71; 77,79</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,23</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,76; -0,5</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 1,3</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,17; -1,06</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; -0,07</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 4,06</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,55; -0,46</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,15; -1,19</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 2,02</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; -1,47</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,89%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,9%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,29%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,1%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,77%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,46%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,4; -6,98</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,81; 18,95</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,82; -13,39</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,85; 0,66</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,96; 53,77</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,6; -4,33</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,61; -15,22</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,91; 27,1</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,16; -18,6</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 3,9</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 2,15</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,46</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 3,2</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 3,27</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 2,26</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 3,09</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,24</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 1,45</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,49; 62,05</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 33,99</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,13; 23,18</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,16; 54,85</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,7; 56,66</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 39,46</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,75; 49,18</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,72; 35,94</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 23,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 10,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 5,82</t>
+          <t>-3,75; 5,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 9,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 3,4</t>
+          <t>-4,9; 3,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 8,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,71</t>
+          <t>-2,67; 3,76</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,77%</t>
+          <t>-6,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,93%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 217,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 117,62</t>
+          <t>-40,92; 117,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,53; 183,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,64; 74,1</t>
+          <t>-48,7; 72,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,18; 154,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 66,43</t>
+          <t>-30,22; 69,48</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,14</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 0,26</t>
+          <t>-5,91; 0,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,51</t>
+          <t>-2,22; 3,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,0</t>
+          <t>-3,38; 0,96</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-42,46%</t>
+          <t>-43,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-17,6%</t>
+          <t>-18,12%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,79; 11,75</t>
+          <t>-71,47; 12,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 72,71</t>
+          <t>-30,85; 74,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,23; 19,65</t>
+          <t>-45,67; 19,27</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>4,91</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 6,09</t>
+          <t>-0,87; 6,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,28</t>
+          <t>4,36; 10,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,39</t>
+          <t>2,81; 7,35</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>54,32%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>363,86%</t>
+          <t>364,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>155,67%</t>
+          <t>154,08%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 233,04</t>
+          <t>-17,84; 230,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>91,73; 920,71</t>
+          <t>91,87; 926,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>64,93; 352,09</t>
+          <t>64,1; 349,77</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,24</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 6,28</t>
+          <t>-2,89; 4,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 7,69</t>
+          <t>-1,42; 7,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 8,14</t>
+          <t>0,4; 8,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 5,1</t>
+          <t>-3,49; 3,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,46</t>
+          <t>-0,22; 5,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 4,66</t>
+          <t>-1,75; 3,88</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>55,16%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>82,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>74,83%</t>
+          <t>44,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>22,28%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 155,53</t>
+          <t>-42,3; 95,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 187,96</t>
+          <t>-20,77; 193,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,58; 225,44</t>
+          <t>2,5; 202,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 132,3</t>
+          <t>-48,74; 93,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,51; 153,9</t>
+          <t>-4,1; 120,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 100,25</t>
+          <t>-30,07; 83,02</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,26</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 4,71</t>
+          <t>-4,38; 4,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 9,5</t>
+          <t>-0,81; 9,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 5,83</t>
+          <t>-1,07; 5,75</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>59,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>31,82%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 111,43</t>
+          <t>-46,95; 113,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 212,88</t>
+          <t>-8,86; 208,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 116,73</t>
+          <t>-11,53; 115,44</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 5,91</t>
+          <t>-2,12; 5,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 5,04</t>
+          <t>-2,33; 4,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,63</t>
+          <t>-0,93; 4,63</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>31,16%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 138,49</t>
+          <t>-28,66; 141,75</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 136,11</t>
+          <t>-29,4; 134,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 109,66</t>
+          <t>-13,66; 109,45</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>1,72</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 6,31</t>
+          <t>-1,08; 6,7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,38</t>
+          <t>-3,39; 4,72</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,66</t>
+          <t>-2,16; 4,34</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>33,27%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>24,65%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 96,11</t>
+          <t>-13,23; 99,11</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 110,47</t>
+          <t>-46,28; 89,24</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 77,79</t>
+          <t>-27,04; 68,3</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-3,85</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,17; -1,06</t>
+          <t>-7,97; -1,96</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -0,46</t>
+          <t>-5,5; -0,43</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -1,47</t>
+          <t>-6,36; -2,0</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-41,0%</t>
+          <t>-53,39%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-34,1%</t>
+          <t>-33,44%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-37,46%</t>
+          <t>-44,67%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-60,82; -13,39</t>
+          <t>-81,27; -27,68</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-52,6; -4,33</t>
+          <t>-51,94; -3,07</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-52,16; -18,6</t>
+          <t>-66,38; -26,09</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,46</t>
+          <t>-1,99; 1,12</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,26</t>
+          <t>-0,87; 1,96</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,45</t>
+          <t>-0,85; 1,24</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>-4,5%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>3,28%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 23,18</t>
+          <t>-27,09; 17,39</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 39,46</t>
+          <t>-12,57; 33,55</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 23,8</t>
+          <t>-11,98; 19,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 10,77</t>
+          <t>0,26; 10,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 8,7</t>
+          <t>-1,04; 8,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 5,82</t>
+          <t>-3,88; 6,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 9,27</t>
+          <t>-1,65; 9,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 5,92</t>
+          <t>-3,18; 6,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 3,39</t>
+          <t>-4,84; 3,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 8,42</t>
+          <t>1,1; 8,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,09</t>
+          <t>-0,7; 6,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,76</t>
+          <t>-2,68; 3,5</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 217,22</t>
+          <t>-2,33; 212,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 180,66</t>
+          <t>-14,5; 173,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 117,78</t>
+          <t>-41,84; 121,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 183,4</t>
+          <t>-17,5; 181,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 125,02</t>
+          <t>-32,58; 135,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,7; 72,82</t>
+          <t>-48,32; 67,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 154,68</t>
+          <t>13,29; 150,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 104,48</t>
+          <t>-9,57; 109,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 69,48</t>
+          <t>-31,94; 60,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 10,8</t>
+          <t>2,76; 10,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,29</t>
+          <t>-2,17; 4,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 0,32</t>
+          <t>-5,56; 0,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,4</t>
+          <t>-0,8; 5,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,5</t>
+          <t>-1,79; 4,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,64</t>
+          <t>-2,79; 3,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,9</t>
+          <t>1,48; 6,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,39</t>
+          <t>-1,29; 3,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,96</t>
+          <t>-3,29; 1,17</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,37; 238,05</t>
+          <t>31,13; 213,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 98,09</t>
+          <t>-29,53; 83,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,47; 12,94</t>
+          <t>-69,83; 13,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 110,55</t>
+          <t>-11,53; 118,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 96,22</t>
+          <t>-23,26; 99,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 74,87</t>
+          <t>-37,92; 67,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,03; 129,1</t>
+          <t>17,2; 126,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 64,89</t>
+          <t>-17,48; 66,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,67; 19,27</t>
+          <t>-44,21; 22,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 11,29</t>
+          <t>2,42; 11,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 4,97</t>
+          <t>-2,67; 4,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 6,04</t>
+          <t>-1,14; 6,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,4; 12,98</t>
+          <t>5,61; 12,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 9,22</t>
+          <t>2,42; 9,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,31</t>
+          <t>4,38; 10,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 10,84</t>
+          <t>5,02; 10,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 6,22</t>
+          <t>0,91; 5,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,35</t>
+          <t>2,57; 7,27</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,56; 409,95</t>
+          <t>36,68; 429,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 199,75</t>
+          <t>-41,82; 149,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 230,26</t>
+          <t>-21,55; 232,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>153,59; 1286,44</t>
+          <t>141,21; 1084,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,03; 860,13</t>
+          <t>58,13; 819,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>91,87; 926,8</t>
+          <t>122,22; 1121,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>116,88; 512,76</t>
+          <t>106,43; 452,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,28; 270,07</t>
+          <t>20,57; 248,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>64,1; 349,77</t>
+          <t>52,14; 320,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,01</t>
+          <t>-3,08; 3,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,89</t>
+          <t>-0,89; 6,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 7,93</t>
+          <t>-1,97; 7,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,1</t>
+          <t>0,83; 8,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,97</t>
+          <t>-2,05; 4,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 3,82</t>
+          <t>-2,99; 3,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 5,14</t>
+          <t>-0,22; 4,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,85</t>
+          <t>-0,24; 4,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,88</t>
+          <t>-1,54; 4,31</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,3; 95,54</t>
+          <t>-40,39; 103,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 166,2</t>
+          <t>-17,12; 169,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 193,43</t>
+          <t>-29,8; 191,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 202,53</t>
+          <t>9,3; 205,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,87; 125,06</t>
+          <t>-33,07; 127,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,74; 93,45</t>
+          <t>-45,65; 100,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 120,65</t>
+          <t>-3,92; 111,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 108,26</t>
+          <t>-5,11; 108,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 83,02</t>
+          <t>-21,75; 93,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 11,87</t>
+          <t>-0,51; 11,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 4,59</t>
+          <t>-5,22; 4,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 4,9</t>
+          <t>-4,78; 4,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 8,03</t>
+          <t>-2,69; 8,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 5,63</t>
+          <t>-4,64; 5,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 9,07</t>
+          <t>-1,0; 8,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 7,74</t>
+          <t>-0,27; 8,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,85</t>
+          <t>-3,22; 3,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,75</t>
+          <t>-1,07; 5,68</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 244,4</t>
+          <t>-9,73; 225,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,29; 106,36</t>
+          <t>-56,04; 101,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-46,95; 113,94</t>
+          <t>-49,96; 98,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 183,5</t>
+          <t>-33,1; 167,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,92; 118,74</t>
+          <t>-48,07; 119,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 208,11</t>
+          <t>-13,75; 195,45</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 140,66</t>
+          <t>-6,18; 148,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 74,0</t>
+          <t>-36,34; 70,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 115,44</t>
+          <t>-12,66; 104,5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,14; 14,11</t>
+          <t>4,05; 14,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 5,05</t>
+          <t>-3,35; 6,24</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 5,92</t>
+          <t>-2,07; 6,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 8,9</t>
+          <t>0,18; 8,86</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 7,75</t>
+          <t>-1,0; 8,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 4,95</t>
+          <t>-2,18; 5,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,41; 10,38</t>
+          <t>3,4; 10,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,7</t>
+          <t>-0,98; 5,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,63</t>
+          <t>-0,87; 4,77</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>43,71; 315,4</t>
+          <t>44,99; 350,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 112,56</t>
+          <t>-42,04; 151,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 141,75</t>
+          <t>-25,52; 144,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 239,49</t>
+          <t>-0,65; 243,41</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 212,92</t>
+          <t>-17,36; 211,71</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-29,4; 134,87</t>
+          <t>-27,55; 158,78</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>44,14; 234,47</t>
+          <t>46,08; 236,65</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 128,28</t>
+          <t>-13,87; 110,78</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 109,45</t>
+          <t>-12,86; 106,2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,61</t>
+          <t>-2,23; 4,1</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,74</t>
+          <t>-2,9; 3,64</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 6,7</t>
+          <t>-1,12; 6,88</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,56</t>
+          <t>-2,76; 2,58</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,5</t>
+          <t>-1,27; 4,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 4,72</t>
+          <t>-3,33; 4,48</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,28</t>
+          <t>-1,82; 2,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,22</t>
+          <t>-1,12; 3,1</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,34</t>
+          <t>-2,04; 4,45</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 56,8</t>
+          <t>-25,68; 62,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-29,32; 59,58</t>
+          <t>-29,96; 56,46</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 99,11</t>
+          <t>-12,99; 108,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 53,03</t>
+          <t>-37,47; 55,61</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 96,84</t>
+          <t>-17,61; 88,17</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-46,28; 89,24</t>
+          <t>-44,25; 82,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 38,73</t>
+          <t>-22,43; 39,38</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 52,96</t>
+          <t>-14,26; 52,81</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 68,3</t>
+          <t>-26,0; 70,62</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-5,76; -0,5</t>
+          <t>-5,87; -0,59</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,3</t>
+          <t>-3,92; 1,41</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -1,96</t>
+          <t>-8,26; -1,78</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -0,07</t>
+          <t>-5,36; -0,19</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 4,06</t>
+          <t>-2,13; 4,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-5,5; -0,43</t>
+          <t>-5,38; -0,27</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -1,19</t>
+          <t>-4,79; -0,95</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,02</t>
+          <t>-2,24; 2,14</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-6,36; -2,0</t>
+          <t>-6,49; -1,91</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-60,4; -6,98</t>
+          <t>-60,77; -8,22</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 18,95</t>
+          <t>-41,14; 20,73</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-81,27; -27,68</t>
+          <t>-80,19; -25,12</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-49,85; 0,66</t>
+          <t>-51,04; -2,28</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 53,77</t>
+          <t>-20,05; 54,12</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-51,94; -3,07</t>
+          <t>-50,58; -1,85</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-51,61; -15,22</t>
+          <t>-49,34; -8,95</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 27,1</t>
+          <t>-23,16; 30,55</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-66,38; -26,09</t>
+          <t>-68,19; -25,39</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,9</t>
+          <t>1,19; 3,97</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,15</t>
+          <t>-0,51; 2,22</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,12</t>
+          <t>-2,0; 1,11</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,2</t>
+          <t>0,7; 3,29</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,27</t>
+          <t>0,47; 3,18</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,96</t>
+          <t>-0,99; 2,04</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,09</t>
+          <t>1,29; 3,08</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,24</t>
+          <t>0,47; 2,22</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,24</t>
+          <t>-0,81; 1,33</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,49; 62,05</t>
+          <t>15,76; 61,9</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 33,99</t>
+          <t>-6,95; 36,0</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 17,39</t>
+          <t>-27,63; 17,16</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>7,16; 54,85</t>
+          <t>9,78; 56,37</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>8,7; 56,66</t>
+          <t>6,59; 54,88</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 33,55</t>
+          <t>-13,07; 34,57</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>17,75; 49,18</t>
+          <t>17,82; 48,01</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,72; 35,94</t>
+          <t>6,53; 35,43</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 19,69</t>
+          <t>-11,31; 21,44</t>
         </is>
       </c>
     </row>
